--- a/SKRIPSI/UNVR_2012_2019.xlsx
+++ b/SKRIPSI/UNVR_2012_2019.xlsx
@@ -20,7 +20,7 @@
     <sheet name="2017" sheetId="6" r:id="rId6"/>
     <sheet name="2018" sheetId="7" r:id="rId7"/>
     <sheet name="2019" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="transform" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -233,9 +233,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -247,6 +244,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -4025,14 +4025,14 @@
       <c r="A125" s="4">
         <v>41088</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
@@ -21607,14 +21607,14 @@
       <c r="A21" s="4">
         <v>42340</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -34561,9 +34561,9 @@
     <col min="7" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="2"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
@@ -34589,10 +34589,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -35322,14 +35322,14 @@
       <c r="A24" s="4">
         <v>43069</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -38170,14 +38170,14 @@
       <c r="A130" s="4">
         <v>42922</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
@@ -41638,7 +41638,7 @@
     <col min="10" max="10" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" style="6"/>
     <col min="12" max="12" width="13.85546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="9"/>
+    <col min="13" max="13" width="11.5703125" style="8"/>
     <col min="14" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
@@ -41708,7 +41708,7 @@
         <f>(J2+J3+J4)/3</f>
         <v>8710.6716073781299</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -41749,7 +41749,7 @@
         <f>(J5+J6+J7)/3</f>
         <v>8949.700592885376</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -41790,7 +41790,7 @@
         <f>(J8+J9+J10)/3</f>
         <v>9489.1097308488606</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -41831,7 +41831,7 @@
         <f>(J11+J12+J13)/3</f>
         <v>10666.731554677206</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -42624,14 +42624,14 @@
       <c r="A33" s="4">
         <v>43420</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -45850,14 +45850,14 @@
       <c r="A153" s="4">
         <v>43255</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
@@ -48848,7 +48848,7 @@
   <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -50110,7 +50110,7 @@
         <f t="shared" si="0"/>
         <v>8745</v>
       </c>
-      <c r="K42" s="9"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -50732,8 +50732,8 @@
         <f t="shared" si="0"/>
         <v>9300</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="M65" s="9"/>
+      <c r="K65" s="8"/>
+      <c r="M65" s="8"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -51301,7 +51301,7 @@
         <f t="shared" si="1"/>
         <v>9770</v>
       </c>
-      <c r="K86" s="9"/>
+      <c r="K86" s="8"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
@@ -51896,7 +51896,7 @@
         <f t="shared" si="1"/>
         <v>8720</v>
       </c>
-      <c r="K108" s="9"/>
+      <c r="K108" s="8"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
@@ -52518,8 +52518,8 @@
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-      <c r="K131" s="9"/>
-      <c r="M131" s="9"/>
+      <c r="K131" s="8"/>
+      <c r="M131" s="8"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
@@ -53060,20 +53060,20 @@
         <f t="shared" si="2"/>
         <v>8900</v>
       </c>
-      <c r="K151" s="9"/>
+      <c r="K151" s="8"/>
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>43616</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
@@ -53695,7 +53695,7 @@
         <f t="shared" si="3"/>
         <v>9100</v>
       </c>
-      <c r="K175" s="9"/>
+      <c r="K175" s="8"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
@@ -54290,8 +54290,8 @@
         <f t="shared" si="4"/>
         <v>9840</v>
       </c>
-      <c r="K197" s="9"/>
-      <c r="M197" s="9"/>
+      <c r="K197" s="8"/>
+      <c r="M197" s="8"/>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
@@ -54859,7 +54859,7 @@
         <f t="shared" si="4"/>
         <v>9735</v>
       </c>
-      <c r="K218" s="9"/>
+      <c r="K218" s="8"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
@@ -55400,7 +55400,7 @@
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="K238" s="9"/>
+      <c r="K238" s="8"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
@@ -56011,1118 +56011,1118 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E115"/>
+  <dimension ref="B2:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93:E96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="9">
         <v>3890.9520000000002</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="10">
+      <c r="D2" s="9">
         <v>3907.3020000000001</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="9">
         <v>5203.3329999999996</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10">
+      <c r="D3" s="9">
         <v>4206.0159999999996</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="9">
         <v>3863.81</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="10">
+      <c r="D4" s="9">
         <v>5071.5410000000002</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
         <v>3869</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="10">
+      <c r="D5" s="9">
         <v>5020.8109999999997</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
         <v>4232.3810000000003</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
         <v>4516.6670000000004</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="9">
         <v>4724.5450000000001</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
         <v>5061.5789999999997</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
         <v>5428.5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
         <v>5179.5450000000001</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
         <v>5239</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
         <v>4643.8890000000001</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E13"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="F13"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
         <v>4371.9049999999997</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="10">
+      <c r="D15" s="9">
         <v>4472.2139999999999</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
         <v>4510</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10">
+      <c r="D16" s="9">
         <v>5396.9620000000004</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
         <v>4534.7370000000001</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="D17" s="9">
         <v>6174.0649999999996</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
         <v>4580.9089999999997</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="10">
+      <c r="D18" s="9">
         <v>5719.7240000000002</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
         <v>5886.8180000000002</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
         <v>5723.1580000000004</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
         <v>6266.9570000000003</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
         <v>5970</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
         <v>6285.2380000000003</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
         <v>6187.6189999999997</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
         <v>5750.5</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
         <v>5221.0529999999999</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
         <v>5481.5</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="10">
+      <c r="D28" s="9">
         <v>5623.0829999999996</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
         <v>5639.5</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="10">
+      <c r="D29" s="9">
         <v>5989.7619999999997</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="9">
         <v>5748.25</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="10">
+      <c r="D30" s="9">
         <v>6265.0720000000001</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="9">
         <v>5977.857</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="10">
+      <c r="D31" s="9">
         <v>6216.8590000000004</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="9">
         <v>6018.3329999999996</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="9">
         <v>5973.0950000000003</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="9">
         <v>6168.4210000000003</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="9">
         <v>6294.75</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="9">
         <v>6332.0450000000001</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
         <v>6187.826</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="9">
         <v>6183.5</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="9">
         <v>6279.25</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="9">
         <v>6810</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="10">
+      <c r="D41" s="9">
         <v>7218.5649999999996</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="9">
         <v>7188.4210000000003</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="10">
+      <c r="D42" s="9">
         <v>8337.7150000000001</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
         <v>7657.2730000000001</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="10">
+      <c r="D43" s="9">
         <v>7714.5870000000004</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="9">
         <v>8027.857</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="10">
+      <c r="D44" s="9">
         <v>7418.7460000000001</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="9">
         <v>8760.5259999999998</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="9">
         <v>8224.7620000000006</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="9">
         <v>8022.3680000000004</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="9">
         <v>7469.25</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="9">
         <v>7652.143</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="9">
         <v>7698.0950000000003</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="9">
         <v>7337.143</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="9">
         <v>7221</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="9"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="9">
         <v>7219.25</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="10">
+      <c r="D54" s="9">
         <v>8080.8810000000003</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="E54" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="F54" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="9">
         <v>8251.25</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="10">
+      <c r="D55" s="9">
         <v>8744.3819999999996</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="9">
         <v>8772.143</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="10">
+      <c r="D56" s="9">
         <v>9019.5139999999992</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="9">
         <v>8800.2379999999994</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="10">
+      <c r="D57" s="9">
         <v>8444.1540000000005</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="9">
         <v>8717</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="9">
         <v>8715.9089999999997</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="9">
         <v>8961.5630000000001</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="9">
         <v>9093.4089999999997</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="9">
         <v>9003.5709999999999</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="9">
         <v>8931.6669999999995</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="9">
         <v>8364.5450000000001</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="9">
         <v>8036.25</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="9">
         <v>8099.3180000000002</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="10">
+      <c r="D67" s="9">
         <v>8369.098</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="E67" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="F67" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="9">
         <v>8435.25</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="10">
+      <c r="D68" s="9">
         <v>9331.32</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="E68" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="9">
         <v>8572.7270000000008</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="10">
+      <c r="D69" s="9">
         <v>9834.5650000000005</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="E69" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="9">
         <v>9017.7780000000002</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="10">
+      <c r="D70" s="9">
         <v>10088.42</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="E70" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="9">
         <v>9375.5</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="9">
         <v>9600.6820000000007</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="9">
         <v>9638.81</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="9">
         <v>9768.6959999999999</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="9">
         <v>10096.19</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="9">
         <v>9925.6820000000007</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="9">
         <v>9903.8639999999996</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="9">
         <v>10435.714</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="9">
         <v>10925.217000000001</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="10">
+      <c r="D80" s="9">
         <v>10666.732</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="E80" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="F80" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="9">
         <v>10894.75</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="10">
+      <c r="D81" s="9">
         <v>9489.11</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="E81" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="9">
         <v>10180.227000000001</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C82" s="10">
+      <c r="D82" s="9">
         <v>8949.7009999999991</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="E82" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="9">
         <v>10025</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="10">
+      <c r="D83" s="9">
         <v>8710.6720000000005</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="E83" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="9">
         <v>9388.0429999999997</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="9">
         <v>9054.2860000000001</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="9">
         <v>9071.5910000000003</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="9">
         <v>8663.2610000000004</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="9">
         <v>9114.25</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="9">
         <v>8872.1740000000009</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="9">
         <v>8306.5910000000003</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="9">
         <v>8953.25</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="9">
         <v>9645.4349999999995</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="10">
+      <c r="D93" s="9">
         <v>9766.9030000000002</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="E93" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="F93" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="9">
         <v>9855.75</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="10">
+      <c r="D94" s="9">
         <v>9119.0249999999996</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="E94" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="10">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="9">
         <v>9799.5239999999994</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="C95" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C95" s="10">
+      <c r="D95" s="9">
         <v>9154.4079999999994</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="E95" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="9">
         <v>9680</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="C96" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="10">
+      <c r="D96" s="9">
         <v>8581.8040000000001</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="E96" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="9">
         <v>8692.8259999999991</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="C97" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="9">
         <v>8984.25</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="C98" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="9">
         <v>8962.1740000000009</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="C99" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="10">
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="9">
         <v>9092.9549999999999</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="10">
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="9">
         <v>9408.0949999999993</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="C101" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="10">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="9">
         <v>8863.6959999999999</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="C102" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="10">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="9">
         <v>8516.19</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="C103" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="10">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="9">
         <v>8365.5259999999998</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="C104" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
